--- a/data/trans_dic/P42C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R2-Edad-trans_dic.xlsx
@@ -590,7 +590,7 @@
         <v>0.7906024006803634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6492095780257506</v>
+        <v>0.6492095780257507</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6713056968777146</v>
+        <v>0.6714483033954212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7374585901105852</v>
+        <v>0.732749650947114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5157132069708713</v>
+        <v>0.500453883629175</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7873713435335746</v>
+        <v>0.783719868904316</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8445644617021936</v>
+        <v>0.840554906736799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7641908596101382</v>
+        <v>0.7635870471461599</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.7868759167500934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7064405146985403</v>
+        <v>0.7064405146985404</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6596113073381786</v>
+        <v>0.6545638582783223</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7488645229931871</v>
+        <v>0.751158246756922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6407229323719565</v>
+        <v>0.6414999743206879</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7437936276774759</v>
+        <v>0.7454942939935552</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8235164595895937</v>
+        <v>0.8232579313579345</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7673635360802625</v>
+        <v>0.7653831185734807</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.7955878894393172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.747595521081127</v>
+        <v>0.7475955210811273</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6766508719038024</v>
+        <v>0.6777516757301468</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7615761735099615</v>
+        <v>0.761746806552456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7071506782243254</v>
+        <v>0.7048896371030424</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7521894447382789</v>
+        <v>0.7534970291936584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8282469999362873</v>
+        <v>0.8260079559401579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7897213032307758</v>
+        <v>0.7836639256820012</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8583419929868863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6701738226404755</v>
+        <v>0.6701738226404753</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6917886604395305</v>
+        <v>0.6916155679734115</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8246202471074977</v>
+        <v>0.8260131361203545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.633070931042059</v>
+        <v>0.633536195835776</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7735368993230696</v>
+        <v>0.7766596489057451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.882887457593179</v>
+        <v>0.8871132573240365</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7036998152214022</v>
+        <v>0.7050809104948711</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.8751568982624669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7860155066700434</v>
+        <v>0.7860155066700435</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7884618765793061</v>
+        <v>0.7912797452395963</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8362162835715861</v>
+        <v>0.8355500969177626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7539537036784789</v>
+        <v>0.7519892631452796</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8725952801048918</v>
+        <v>0.8737170619654965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9039517310767892</v>
+        <v>0.9051925493866055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8185296287511734</v>
+        <v>0.819822145261941</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7965674335315388</v>
+        <v>0.7963923868699652</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8697026893525993</v>
+        <v>0.8618090498835788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7989367017784256</v>
+        <v>0.796395988131285</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8886302519074231</v>
+        <v>0.8942313543862092</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9375379664432066</v>
+        <v>0.9383995749181018</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8606690005884822</v>
+        <v>0.8613377499899698</v>
       </c>
     </row>
     <row r="22">
@@ -920,7 +920,7 @@
         <v>0.9794075292235848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8806031717303797</v>
+        <v>0.8806031717303795</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8272982944374901</v>
+        <v>0.8240567756867154</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9419484296695042</v>
+        <v>0.9447485299087887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8479285621655496</v>
+        <v>0.8511442737895646</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9220891714886359</v>
+        <v>0.9251420652655825</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9940891270852532</v>
+        <v>0.9939514034572722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9073387763456012</v>
+        <v>0.9091756652269473</v>
       </c>
     </row>
     <row r="25">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7398432412598196</v>
+        <v>0.7441212467346331</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8301105147549896</v>
+        <v>0.8304030318228367</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7403362400465359</v>
+        <v>0.7413612018024193</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7773379645932481</v>
+        <v>0.7781572412129818</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8586074330914214</v>
+        <v>0.8584836103462492</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7727137744767807</v>
+        <v>0.7743031247886487</v>
       </c>
     </row>
     <row r="28">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>156184</v>
+        <v>156217</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>159183</v>
+        <v>158166</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55357</v>
+        <v>53719</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>183187</v>
+        <v>182338</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>182302</v>
+        <v>181436</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82029</v>
+        <v>81964</v>
       </c>
     </row>
     <row r="8">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>322530</v>
+        <v>320062</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>346746</v>
+        <v>347808</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>155413</v>
+        <v>155602</v>
       </c>
     </row>
     <row r="11">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>363693</v>
+        <v>364524</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>381312</v>
+        <v>381192</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>186131</v>
+        <v>185651</v>
       </c>
     </row>
     <row r="12">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>418754</v>
+        <v>419435</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>444150</v>
+        <v>444250</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>244710</v>
+        <v>243928</v>
       </c>
     </row>
     <row r="15">
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>465501</v>
+        <v>466311</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>483033</v>
+        <v>481727</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>273284</v>
+        <v>271188</v>
       </c>
     </row>
     <row r="16">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>371813</v>
+        <v>371720</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>474382</v>
+        <v>475183</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>285542</v>
+        <v>285752</v>
       </c>
     </row>
     <row r="19">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>415750</v>
+        <v>417428</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>507901</v>
+        <v>510332</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>317399</v>
+        <v>318022</v>
       </c>
     </row>
     <row r="20">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>308008</v>
+        <v>309109</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>361570</v>
+        <v>361282</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>299243</v>
+        <v>298464</v>
       </c>
     </row>
     <row r="23">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>340874</v>
+        <v>341312</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>390858</v>
+        <v>391394</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>324874</v>
+        <v>325387</v>
       </c>
     </row>
     <row r="24">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>205145</v>
+        <v>205100</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>245282</v>
+        <v>243056</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>236274</v>
+        <v>235522</v>
       </c>
     </row>
     <row r="27">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>228854</v>
+        <v>230297</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>264414</v>
+        <v>264657</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>254530</v>
+        <v>254728</v>
       </c>
     </row>
     <row r="28">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>176959</v>
+        <v>176266</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>211921</v>
+        <v>212551</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>229462</v>
+        <v>230332</v>
       </c>
     </row>
     <row r="31">
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>197235</v>
+        <v>197888</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>223652</v>
+        <v>223621</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>245539</v>
+        <v>246037</v>
       </c>
     </row>
     <row r="32">
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2027196</v>
+        <v>2038918</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2305013</v>
+        <v>2305825</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1562289</v>
+        <v>1564452</v>
       </c>
     </row>
     <row r="35">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2129932</v>
+        <v>2132177</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2384142</v>
+        <v>2383798</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1630614</v>
+        <v>1633968</v>
       </c>
     </row>
     <row r="36">
